--- a/file/apps.xlsx
+++ b/file/apps.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zijian.cheng/PycharmProjects/AutoBuildProjects/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zijian.cheng/PycharmProjects/AutoBuildProjects/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="1540" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="7700" yWindow="1560" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>ParamBranch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,27 @@
   <si>
     <t>##此处的配置项是基于Jenkins来创建的。参数和功能用途与Jenkins里的一致##</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>release-liantong</t>
+  </si>
+  <si>
+    <t>公测版</t>
+  </si>
+  <si>
+    <t>柠檬图标</t>
+  </si>
+  <si>
+    <t>百度独家</t>
+  </si>
+  <si>
+    <t>美女视频</t>
+  </si>
+  <si>
+    <t>关</t>
+  </si>
+  <si>
+    <t>隐藏</t>
   </si>
 </sst>
 </file>
@@ -455,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -599,6 +620,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I6"/>

--- a/file/apps.xlsx
+++ b/file/apps.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="1560" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="8280" yWindow="1360" windowWidth="34500" windowHeight="18160" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="develop" sheetId="1" r:id="rId1"/>
+    <sheet name="release" sheetId="3" r:id="rId2"/>
+    <sheet name="tinker" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,13 +26,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+  <si>
+    <t>ParamVersionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamAppIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamAppName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamTestMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamIsGooglePlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamXiaomiHidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamHideLauncher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamAppLaunchImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>内测版</t>
+  </si>
+  <si>
+    <t>开</t>
+  </si>
+  <si>
+    <t>360独家</t>
+  </si>
+  <si>
+    <t>美女图标</t>
+  </si>
+  <si>
+    <t>么么直播美女视频</t>
+  </si>
+  <si>
+    <t>显示</t>
+  </si>
+  <si>
+    <t>release-liantong</t>
+  </si>
+  <si>
+    <t>公测版</t>
+  </si>
+  <si>
+    <t>柠檬图标</t>
+  </si>
+  <si>
+    <t>百度独家</t>
+  </si>
+  <si>
+    <t>美女视频</t>
+  </si>
+  <si>
+    <t>关</t>
+  </si>
+  <si>
+    <t>隐藏</t>
+  </si>
+  <si>
+    <t>卡通图标2</t>
+  </si>
+  <si>
+    <t>ParamBaseApkName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meme-v6.7.0-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamVersionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamAppLaunchImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamAppAssets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱玩直播</t>
+  </si>
+  <si>
+    <t>##Tinker##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamTestMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamIsGooglePlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamPatchEnable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamBuildTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinkerPatchRelease</t>
+  </si>
   <si>
     <t>ParamBranch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ParamVersionName</t>
+    <t>##DEVELOP##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##RELEASE##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v6.9.7-xingqiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamTag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -42,83 +185,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ParamTestMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParamIsGooglePlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ParamXiaomiHidden</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParamHideLauncher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParamAppLaunchImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>release</t>
-  </si>
-  <si>
-    <t>内测版</t>
-  </si>
-  <si>
-    <t>开</t>
-  </si>
-  <si>
-    <t>360独家</t>
-  </si>
-  <si>
-    <t>美女图标</t>
-  </si>
-  <si>
-    <t>么么直播美女视频</t>
-  </si>
-  <si>
-    <t>显示</t>
-  </si>
-  <si>
-    <t>##此处的配置项是基于Jenkins来创建的。参数和功能用途与Jenkins里的一致##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>release-liantong</t>
-  </si>
-  <si>
-    <t>公测版</t>
-  </si>
-  <si>
-    <t>柠檬图标</t>
-  </si>
-  <si>
-    <t>百度独家</t>
-  </si>
-  <si>
-    <t>美女视频</t>
-  </si>
-  <si>
-    <t>关</t>
-  </si>
-  <si>
-    <t>隐藏</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +242,12 @@
       <color theme="1"/>
       <name val="宋体 (正文)"/>
     </font>
+    <font>
+      <i/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -197,6 +278,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +560,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1048576">
+      <formula1>"内测版,公测版,正式版"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576">
+      <formula1>"猫头图标,柠檬图标,美女图标,卡通图标1,卡通图标2,小黄图,夜嗨,午夜直播"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1048576">
+      <formula1>"360独家,360联合,百度独家,百度联合,华为首发"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1048576">
+      <formula1>"么么直播,美女视频,么么直播美女视频,么么美女直播,么么直播寂寞美女,午夜直播,么么美女直播-视频交友,么么直播视频交友,么么美女直播-视频,夜嗨交友直播,夜嗨秀场直播,么么直播-至尊版,么么直播-华为版"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1048576">
+      <formula1>"关,开"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576 H8:H1048576">
+      <formula1>"否,是"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576">
+      <formula1>"隐藏,显示"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -495,8 +771,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
+      <c r="A1" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -564,89 +840,89 @@
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -655,31 +931,270 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H1048576">
+      <formula1>"隐藏,显示"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576 I8:I1048576">
+      <formula1>"否,是"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576">
+      <formula1>"关,开"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1048576">
+      <formula1>"么么直播,美女视频,么么直播美女视频,么么美女直播,么么直播寂寞美女,午夜直播,么么美女直播-视频交友,么么直播视频交友,么么美女直播-视频,夜嗨交友直播,夜嗨秀场直播,么么直播-至尊版,么么直播-华为版"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1048576">
+      <formula1>"360独家,360联合,百度独家,百度联合,华为首发"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1048576">
+      <formula1>"猫头图标,柠檬图标,美女图标,卡通图标1,卡通图标2,小黄图,夜嗨,午夜直播"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576">
+      <formula1>"内测版,公测版,正式版"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1048576">
       <formula1>"release,release-liantong,release-jinlisdk,AiQingXueYuan-release,wuye_zhibo-release,huaweipay-release,mixiu-release,xingqiu-release,unicom-asiainfo"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576">
-      <formula1>"内测版,公测版,正式版"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1048576">
-      <formula1>"猫头图标,柠檬图标,美女图标,卡通图标1,卡通图标2,小黄图,夜嗨,午夜直播"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1048576">
-      <formula1>"360独家,360联合,百度独家,百度联合,华为首发"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1048576">
-      <formula1>"么么直播,美女视频,么么直播美女视频,么么美女直播,么么直播寂寞美女,午夜直播,么么美女直播-视频交友,么么直播视频交友,么么美女直播-视频,夜嗨交友直播,夜嗨秀场直播,么么直播-至尊版,么么直播-华为版"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576">
-      <formula1>"关,开"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576 I8:I1048576">
-      <formula1>"否,是"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H1048576">
-      <formula1>"隐藏,显示"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J1048576">
+      <formula1>"隐藏,显示"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576 K8:K1048576">
+      <formula1>"否,是"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H1048576">
+      <formula1>"关,开"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576">
+      <formula1>"么么直播,美女视频,么么直播美女视频,么么美女直播,么么直播寂寞美女,午夜直播,么么美女直播-视频交友,么么直播视频交友,么么美女直播-视频,夜嗨交友直播,夜嗨秀场直播,么么直播-至尊版,么么直播-华为版"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1048576">
+      <formula1>"360独家,360联合,百度独家,百度联合,华为首发"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1048576">
+      <formula1>"内测版,公测版,正式版"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1048576">
+      <formula1>"猫头图标,柠檬图标,美女图标,卡通图标1,卡通图标2,小黄图,午夜直播,小柠檬图标,美女跳舞,蜜秀,夜嗨,狐狸"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576">
+      <formula1>"爱玩直播,蜜秀vr,狐狸直播"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L1048576">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M1048576">
+      <formula1>"assembleRelease,tinkerPatchRelease"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>